--- a/перенос в бланк заказа/37 версия ОБЩАЯ с   07.11.xlsx
+++ b/перенос в бланк заказа/37 версия ОБЩАЯ с   07.11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server\zayavki\37 версия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\перенос в бланк заказа\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF538A4-7277-40EA-A29B-9BB7D2CA4420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$B$484</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист3!$A$1:$L$302</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3944,7 +3953,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -10242,9 +10251,9 @@
     <cellStyle name="Название" xfId="34" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="35" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_ЗАЯВКА ОБЩ" xfId="36"/>
-    <cellStyle name="Обычный_Лист1" xfId="37"/>
-    <cellStyle name="Обычный_Лист1_1" xfId="44"/>
+    <cellStyle name="Обычный_ЗАЯВКА ОБЩ" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный_Лист1_1" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Плохой" xfId="38" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="40" builtinId="10" customBuiltin="1"/>
@@ -12684,6 +12693,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -12719,6 +12745,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12894,12 +12937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:XFD100"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30004,7 +30047,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Rnzxq+KJkQhDTrhYJ69rMYxTsGYchubmromdOUhW6pI53kG/9mOsS1q8aHhUjogxbffybfPhPIiaignOWbfviw==" saltValue="lbjpphJWHrucGxjhvT2MbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
-  <autoFilter ref="B1:B484"/>
+  <autoFilter ref="B1:B484" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="B283:J283"/>
@@ -30981,7 +31024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L592"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -56208,7 +56251,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L302"/>
+  <autoFilter ref="A1:L302" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="C269:C275"/>
     <mergeCell ref="D267:D275"/>
@@ -56485,7 +56528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
